--- a/Test Data/Verify DC Units Calculation on changing Device Sensitivity excepts Sounders.xlsx
+++ b/Test Data/Verify DC Units Calculation on changing Device Sensitivity excepts Sounders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4841C1-73DA-4228-9B17-052C75E1FE4D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A535C87F-9C2D-4C75-9E62-451B50730670}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
   <si>
     <t>Device</t>
   </si>
@@ -167,13 +167,19 @@
   </si>
   <si>
     <t>changeDeviceSensitivityAndVerifyDCUnit</t>
+  </si>
+  <si>
+    <t>DC Unit Loading Details Name</t>
+  </si>
+  <si>
+    <t>Current (DC Units)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +202,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,8 +242,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -300,11 +320,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -345,12 +402,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -359,6 +410,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,13 +716,14 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="63.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.33203125" bestFit="1" customWidth="1"/>
@@ -661,22 +735,26 @@
     <col min="12" max="12" width="41.109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -685,10 +763,13 @@
       <c r="B2" s="15">
         <v>259.10000000000002</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="27" t="s">
         <v>44</v>
       </c>
       <c r="F2" s="25" t="s">
@@ -702,8 +783,8 @@
         <v>26</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="30"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="5"/>
       <c r="G3" s="12" t="s">
         <v>38</v>
@@ -909,11 +990,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:M1"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
